--- a/4. Results/sc-eval-results-complete.xlsx
+++ b/4. Results/sc-eval-results-complete.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop\10. Submission Work\8. Uncovering Vulnerabilities in Blockchain\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop\10. Submission Work\8. Vulnerabilities in Blockchain\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7010E338-16B2-4440-B37E-9CC869B4FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889DE2DF-D2D1-42C0-95EE-A32B1E88027E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="138">
   <si>
     <t>CallToUnknown</t>
   </si>
@@ -441,13 +441,19 @@
   </si>
   <si>
     <t>TP count</t>
+  </si>
+  <si>
+    <t>FP count</t>
+  </si>
+  <si>
+    <t>FPR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -533,6 +539,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -593,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -642,9 +654,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -658,6 +667,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,8 +899,8 @@
   <dimension ref="A1:V1022"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L142" sqref="L142"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P168" sqref="P168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1282,19 +1300,19 @@
     <row r="18" spans="1:8" ht="12.75">
       <c r="A18" s="6"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="23">
-        <v>1</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="11"/>
@@ -1302,19 +1320,19 @@
     <row r="19" spans="1:8" ht="12.75">
       <c r="A19" s="6"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="23" t="s">
+      <c r="F19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="11"/>
@@ -1322,19 +1340,19 @@
     <row r="20" spans="1:8" ht="12.75">
       <c r="A20" s="6"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="23">
-        <v>1</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="23" t="s">
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="11"/>
@@ -1342,35 +1360,35 @@
     <row r="21" spans="1:8" ht="12.75">
       <c r="A21" s="6"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="23">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="12.75">
       <c r="A22" s="6"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="23">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="D22" s="22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="11"/>
@@ -1378,19 +1396,19 @@
     <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="6"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="22">
+        <v>1</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="23" t="s">
+      <c r="F23" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="11"/>
@@ -1398,19 +1416,19 @@
     <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="6"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="23">
-        <v>1</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="23" t="s">
+      <c r="D24" s="22">
+        <v>1</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H24" s="11"/>
@@ -1418,19 +1436,19 @@
     <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="6"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="23">
-        <v>1</v>
-      </c>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="22">
+        <v>1</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="F25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="11"/>
@@ -1438,19 +1456,19 @@
     <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="6"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="23">
-        <v>1</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="23" t="s">
+      <c r="D26" s="22">
+        <v>1</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H26" s="11"/>
@@ -1458,19 +1476,19 @@
     <row r="27" spans="1:8" ht="12.75">
       <c r="A27" s="6"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="23">
-        <v>1</v>
-      </c>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="22">
+        <v>1</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="23" t="s">
+      <c r="F27" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="11"/>
@@ -1478,19 +1496,19 @@
     <row r="28" spans="1:8" ht="12.75">
       <c r="A28" s="6"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="23">
-        <v>1</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23" t="s">
+      <c r="D28" s="22">
+        <v>1</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="11" t="s">
@@ -1500,19 +1518,19 @@
     <row r="29" spans="1:8" ht="12.75">
       <c r="A29" s="6"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="23">
-        <v>1</v>
-      </c>
-      <c r="E29" s="23" t="s">
+      <c r="D29" s="22">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="23" t="s">
+      <c r="F29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="11" t="s">
@@ -1874,19 +1892,19 @@
     <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="6"/>
       <c r="B46" s="9"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="23">
-        <v>2</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="23" t="s">
+      <c r="D46" s="22">
+        <v>2</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="11"/>
@@ -1894,35 +1912,35 @@
     <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="6"/>
       <c r="B47" s="9"/>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="23">
-        <v>2</v>
-      </c>
-      <c r="E47" s="23" t="s">
+      <c r="D47" s="22">
+        <v>2</v>
+      </c>
+      <c r="E47" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="6"/>
       <c r="B48" s="9"/>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="23">
-        <v>2</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="23" t="s">
+      <c r="D48" s="22">
+        <v>2</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="11"/>
@@ -1930,35 +1948,35 @@
     <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="6"/>
       <c r="B49" s="9"/>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="23">
-        <v>2</v>
-      </c>
-      <c r="E49" s="23" t="s">
+      <c r="D49" s="22">
+        <v>2</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="6"/>
       <c r="B50" s="9"/>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="23">
-        <v>2</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="23" t="s">
+      <c r="D50" s="22">
+        <v>2</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H50" s="11"/>
@@ -1966,19 +1984,19 @@
     <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="6"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="23">
-        <v>2</v>
-      </c>
-      <c r="E51" s="23" t="s">
+      <c r="D51" s="22">
+        <v>2</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="23" t="s">
+      <c r="F51" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="11"/>
@@ -1986,19 +2004,19 @@
     <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="6"/>
       <c r="B52" s="9"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="23">
-        <v>2</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="23" t="s">
+      <c r="D52" s="22">
+        <v>2</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H52" s="11"/>
@@ -2006,19 +2024,19 @@
     <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="13"/>
       <c r="B53" s="9"/>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="23">
-        <v>2</v>
-      </c>
-      <c r="E53" s="23" t="s">
+      <c r="D53" s="22">
+        <v>2</v>
+      </c>
+      <c r="E53" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="23" t="s">
+      <c r="F53" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="11"/>
@@ -2026,19 +2044,19 @@
     <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="13"/>
       <c r="B54" s="9"/>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="23">
-        <v>2</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54" s="23" t="s">
+      <c r="D54" s="22">
+        <v>2</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="11" t="s">
@@ -2048,19 +2066,19 @@
     <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="13"/>
       <c r="B55" s="9"/>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="23">
-        <v>2</v>
-      </c>
-      <c r="E55" s="23" t="s">
+      <c r="D55" s="22">
+        <v>2</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="23" t="s">
+      <c r="F55" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="11" t="s">
@@ -2070,19 +2088,19 @@
     <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="6"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="23">
-        <v>2</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G56" s="23" t="s">
+      <c r="D56" s="22">
+        <v>2</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>2</v>
       </c>
       <c r="H56" s="11"/>
@@ -2090,19 +2108,19 @@
     <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="6"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="23">
-        <v>2</v>
-      </c>
-      <c r="E57" s="23" t="s">
+      <c r="D57" s="22">
+        <v>2</v>
+      </c>
+      <c r="E57" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="23" t="s">
+      <c r="F57" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="11"/>
@@ -2374,19 +2392,19 @@
     <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="2"/>
       <c r="B70" s="14"/>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="23">
         <v>4</v>
       </c>
-      <c r="E70" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="24" t="s">
+      <c r="E70" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H70" s="11" t="s">
@@ -2396,19 +2414,19 @@
     <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="2"/>
       <c r="B71" s="14"/>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="23">
         <v>4</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="24" t="s">
+      <c r="F71" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H71" s="11" t="s">
@@ -2498,19 +2516,19 @@
     <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="2"/>
       <c r="B76" s="14"/>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="24">
-        <v>5</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" s="24" t="s">
+      <c r="D76" s="23">
+        <v>5</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H76" s="11" t="s">
@@ -2520,19 +2538,19 @@
     <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="2"/>
       <c r="B77" s="14"/>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D77" s="24">
-        <v>5</v>
-      </c>
-      <c r="E77" s="24" t="s">
+      <c r="D77" s="23">
+        <v>5</v>
+      </c>
+      <c r="E77" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G77" s="24" t="s">
+      <c r="F77" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H77" s="11" t="s">
@@ -2542,19 +2560,19 @@
     <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="2"/>
       <c r="B78" s="14"/>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D78" s="24">
-        <v>5</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78" s="24" t="s">
+      <c r="D78" s="23">
+        <v>5</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H78" s="11" t="s">
@@ -2564,19 +2582,19 @@
     <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="2"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D79" s="24">
-        <v>5</v>
-      </c>
-      <c r="E79" s="24" t="s">
+      <c r="D79" s="23">
+        <v>5</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="24" t="s">
+      <c r="F79" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H79" s="11" t="s">
@@ -2586,19 +2604,19 @@
     <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="2"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D80" s="24">
-        <v>5</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" s="24" t="s">
+      <c r="D80" s="23">
+        <v>5</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="23" t="s">
         <v>2</v>
       </c>
       <c r="H80" s="11" t="s">
@@ -2608,19 +2626,19 @@
     <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="2"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D81" s="24">
-        <v>5</v>
-      </c>
-      <c r="E81" s="24" t="s">
+      <c r="D81" s="23">
+        <v>5</v>
+      </c>
+      <c r="E81" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F81" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="24" t="s">
+      <c r="F81" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H81" s="11" t="s">
@@ -2630,19 +2648,19 @@
     <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="2"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="23">
         <v>6</v>
       </c>
-      <c r="E82" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" s="25" t="s">
+      <c r="E82" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H82" s="12" t="s">
@@ -2652,19 +2670,19 @@
     <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="2"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D83" s="23">
         <v>6</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="25" t="s">
+      <c r="F83" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H83" s="12" t="s">
@@ -2674,19 +2692,19 @@
     <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="2"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="23">
         <v>6</v>
       </c>
-      <c r="E84" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" s="25" t="s">
+      <c r="E84" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="24" t="s">
         <v>2</v>
       </c>
       <c r="H84" s="11" t="s">
@@ -2696,19 +2714,19 @@
     <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="2"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="23">
         <v>6</v>
       </c>
-      <c r="E85" s="24" t="s">
+      <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F85" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G85" s="25" t="s">
+      <c r="F85" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="24" t="s">
         <v>5</v>
       </c>
       <c r="H85" s="11" t="s">
@@ -2718,19 +2736,19 @@
     <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="2"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="23">
         <v>7</v>
       </c>
-      <c r="E86" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="24" t="s">
+      <c r="E86" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G86" s="24" t="s">
+      <c r="G86" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="11" t="s">
@@ -2740,19 +2758,19 @@
     <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="2"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D87" s="24">
+      <c r="D87" s="23">
         <v>7</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F87" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G87" s="24" t="s">
+      <c r="F87" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H87" s="11" t="s">
@@ -2762,19 +2780,19 @@
     <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="2"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D88" s="23">
         <v>7</v>
       </c>
-      <c r="E88" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="24" t="s">
+      <c r="E88" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G88" s="24" t="s">
+      <c r="G88" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H88" s="11" t="s">
@@ -2784,19 +2802,19 @@
     <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="2"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="23">
         <v>7</v>
       </c>
-      <c r="E89" s="24" t="s">
+      <c r="E89" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="24" t="s">
+      <c r="F89" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="11" t="s">
@@ -2806,19 +2824,19 @@
     <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="2"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="23">
         <v>7</v>
       </c>
-      <c r="E90" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="24" t="s">
+      <c r="E90" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="24" t="s">
+      <c r="G90" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H90" s="11" t="s">
@@ -2828,19 +2846,19 @@
     <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="2"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="22" t="s">
+      <c r="C91" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="23">
         <v>7</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="E91" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="24" t="s">
+      <c r="F91" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H91" s="11" t="s">
@@ -2850,19 +2868,19 @@
     <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="2"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="22" t="s">
+      <c r="C92" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="23">
         <v>7</v>
       </c>
-      <c r="E92" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="24" t="s">
+      <c r="E92" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G92" s="24" t="s">
+      <c r="G92" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H92" s="11" t="s">
@@ -2872,19 +2890,19 @@
     <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="2"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="22" t="s">
+      <c r="C93" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="23">
         <v>7</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="24" t="s">
+      <c r="F93" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="G93" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H93" s="11" t="s">
@@ -2894,19 +2912,19 @@
     <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="2"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="22" t="s">
+      <c r="C94" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="23">
         <v>7</v>
       </c>
-      <c r="E94" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="24" t="s">
+      <c r="E94" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="G94" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H94" s="11" t="s">
@@ -2916,19 +2934,19 @@
     <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="2"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="22" t="s">
+      <c r="C95" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95" s="23">
         <v>7</v>
       </c>
-      <c r="E95" s="24" t="s">
+      <c r="E95" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F95" s="24" t="s">
+      <c r="F95" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="G95" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H95" s="11" t="s">
@@ -2938,19 +2956,19 @@
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="2"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="22" t="s">
+      <c r="C96" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D96" s="24">
+      <c r="D96" s="23">
         <v>7</v>
       </c>
-      <c r="E96" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" s="24" t="s">
+      <c r="E96" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="G96" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="11" t="s">
@@ -2960,19 +2978,19 @@
     <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="2"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="24">
+      <c r="D97" s="23">
         <v>7</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E97" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="24" t="s">
+      <c r="F97" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="G97" s="23" t="s">
         <v>5</v>
       </c>
       <c r="H97" s="11" t="s">
@@ -2982,19 +3000,19 @@
     <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="2"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="22" t="s">
+      <c r="C98" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="23">
         <v>7</v>
       </c>
-      <c r="E98" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="24" t="s">
+      <c r="E98" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G98" s="24" t="s">
+      <c r="G98" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H98" s="11" t="s">
@@ -3004,19 +3022,19 @@
     <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="2"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="22" t="s">
+      <c r="C99" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D99" s="24">
+      <c r="D99" s="23">
         <v>7</v>
       </c>
-      <c r="E99" s="24" t="s">
+      <c r="E99" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="24" t="s">
+      <c r="F99" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G99" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H99" s="11" t="s">
@@ -3026,19 +3044,19 @@
     <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="2"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="23">
         <v>7</v>
       </c>
-      <c r="E100" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="24" t="s">
+      <c r="E100" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H100" s="11" t="s">
@@ -3048,19 +3066,19 @@
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="2"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D101" s="24">
+      <c r="D101" s="23">
         <v>7</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="24" t="s">
+      <c r="F101" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="23" t="s">
         <v>13</v>
       </c>
       <c r="H101" s="11" t="s">
@@ -3114,19 +3132,19 @@
     <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="6"/>
       <c r="B104" s="9"/>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="22">
         <v>7</v>
       </c>
-      <c r="E104" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" s="23" t="s">
+      <c r="E104" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="23" t="s">
+      <c r="G104" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H104" s="11"/>
@@ -3134,19 +3152,19 @@
     <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="6"/>
       <c r="B105" s="9"/>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="22">
         <v>7</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G105" s="23" t="s">
+      <c r="F105" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H105" s="11"/>
@@ -3154,19 +3172,19 @@
     <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="6"/>
       <c r="B106" s="9"/>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="23">
+      <c r="D106" s="22">
         <v>7</v>
       </c>
-      <c r="E106" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="23" t="s">
+      <c r="E106" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="22" t="s">
         <v>9</v>
       </c>
       <c r="H106" s="11"/>
@@ -3174,19 +3192,19 @@
     <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="6"/>
       <c r="B107" s="9"/>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D107" s="23">
+      <c r="D107" s="22">
         <v>7</v>
       </c>
-      <c r="E107" s="23" t="s">
+      <c r="E107" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="F107" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="23" t="s">
+      <c r="G107" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H107" s="11"/>
@@ -3463,11 +3481,11 @@
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="D126" s="2"/>
-      <c r="F126" s="20" t="s">
+      <c r="F126" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
+      <c r="G126" s="27"/>
+      <c r="H126" s="27"/>
     </row>
     <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="14"/>
@@ -3507,15 +3525,15 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <f>COUNTIFS($D$2:$D$107,$E128,$E$2:$E$107,"P")</f>
+        <f t="shared" ref="F128:H134" si="4">COUNTIFS($D$2:$D$107,$E128,$E$2:$E$107,"P")</f>
         <v>14</v>
       </c>
       <c r="G128">
-        <f>COUNTIFS($D$2:$D$107,$E128,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H128">
-        <f>COUNTIFS($D$2:$D$107,$E128,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -3532,15 +3550,15 @@
         <v>2</v>
       </c>
       <c r="F129">
-        <f>COUNTIFS($D$2:$D$107,$E129,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G129">
-        <f>COUNTIFS($D$2:$D$107,$E129,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="H129">
-        <f>COUNTIFS($D$2:$D$107,$E129,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
     </row>
@@ -3557,15 +3575,15 @@
         <v>3</v>
       </c>
       <c r="F130">
-        <f>COUNTIFS($D$2:$D$107,$E130,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G130">
-        <f>COUNTIFS($D$2:$D$107,$E130,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H130">
-        <f>COUNTIFS($D$2:$D$107,$E130,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3582,15 +3600,15 @@
         <v>4</v>
       </c>
       <c r="F131">
-        <f>COUNTIFS($D$2:$D$107,$E131,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G131">
-        <f>COUNTIFS($D$2:$D$107,$E131,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="H131">
-        <f>COUNTIFS($D$2:$D$107,$E131,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
@@ -3607,15 +3625,15 @@
         <v>5</v>
       </c>
       <c r="F132">
-        <f>COUNTIFS($D$2:$D$107,$E132,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G132">
-        <f>COUNTIFS($D$2:$D$107,$E132,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H132">
-        <f>COUNTIFS($D$2:$D$107,$E132,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -3632,15 +3650,15 @@
         <v>6</v>
       </c>
       <c r="F133">
-        <f>COUNTIFS($D$2:$D$107,$E133,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G133">
-        <f>COUNTIFS($D$2:$D$107,$E133,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="H133">
-        <f>COUNTIFS($D$2:$D$107,$E133,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -3657,15 +3675,15 @@
         <v>7</v>
       </c>
       <c r="F134">
-        <f>COUNTIFS($D$2:$D$107,$E134,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G134">
-        <f>COUNTIFS($D$2:$D$107,$E134,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H134">
-        <f>COUNTIFS($D$2:$D$107,$E134,$E$2:$E$107,"P")</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -3680,11 +3698,11 @@
     <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
-      <c r="F137" s="20" t="s">
+      <c r="F137" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
+      <c r="G137" s="27"/>
+      <c r="H137" s="27"/>
     </row>
     <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="14"/>
@@ -3697,11 +3715,11 @@
         <v>19</v>
       </c>
       <c r="G138" s="17">
-        <f t="shared" ref="G138:H138" si="4">SUM(G139:G145)</f>
+        <f t="shared" ref="G138:H138" si="5">SUM(G139:G145)</f>
         <v>20</v>
       </c>
       <c r="H138" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -3712,15 +3730,15 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <f>COUNTIFS($D$2:$D$107,$E139,$F$2:$F$107,"TP")</f>
+        <f t="shared" ref="F139:F145" si="6">COUNTIFS($D$2:$D$107,$E139,$F$2:$F$107,"TP")</f>
         <v>6</v>
       </c>
       <c r="G139">
-        <f>COUNTIFS($D$2:$D$107,$E139,$G$2:$G$107,"TP")</f>
+        <f t="shared" ref="G139:G145" si="7">COUNTIFS($D$2:$D$107,$E139,$G$2:$G$107,"TP")</f>
         <v>5</v>
       </c>
       <c r="H139">
-        <f>COUNTIFS($D$2:$D$107,$E139,$H$2:$H$107,"TP")</f>
+        <f t="shared" ref="H139:H145" si="8">COUNTIFS($D$2:$D$107,$E139,$H$2:$H$107,"TP")</f>
         <v>2</v>
       </c>
     </row>
@@ -3731,15 +3749,15 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <f>COUNTIFS($D$2:$D$107,$E140,$F$2:$F$107,"TP")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G140">
-        <f>COUNTIFS($D$2:$D$107,$E140,$G$2:$G$107,"TP")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H140">
-        <f>COUNTIFS($D$2:$D$107,$E140,$H$2:$H$107,"TP")</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
     </row>
@@ -3750,15 +3768,15 @@
         <v>3</v>
       </c>
       <c r="F141">
-        <f>COUNTIFS($D$2:$D$107,$E141,$F$2:$F$107,"TP")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G141">
-        <f>COUNTIFS($D$2:$D$107,$E141,$G$2:$G$107,"TP")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H141">
-        <f>COUNTIFS($D$2:$D$107,$E141,$H$2:$H$107,"TP")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3769,15 +3787,15 @@
         <v>4</v>
       </c>
       <c r="F142">
-        <f>COUNTIFS($D$2:$D$107,$E142,$F$2:$F$107,"TP")</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G142">
-        <f>COUNTIFS($D$2:$D$107,$E142,$G$2:$G$107,"TP")</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H142">
-        <f>COUNTIFS($D$2:$D$107,$E142,$H$2:$H$107,"TP")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -3788,15 +3806,15 @@
         <v>5</v>
       </c>
       <c r="F143">
-        <f>COUNTIFS($D$2:$D$107,$E143,$F$2:$F$107,"TP")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G143">
-        <f>COUNTIFS($D$2:$D$107,$E143,$G$2:$G$107,"TP")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H143">
-        <f>COUNTIFS($D$2:$D$107,$E143,$H$2:$H$107,"TP")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3807,62 +3825,62 @@
         <v>6</v>
       </c>
       <c r="F144">
-        <f>COUNTIFS($D$2:$D$107,$E144,$F$2:$F$107,"TP")</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G144">
-        <f>COUNTIFS($D$2:$D$107,$E144,$G$2:$G$107,"TP")</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H144">
-        <f>COUNTIFS($D$2:$D$107,$E144,$H$2:$H$107,"TP")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="12.75">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="E145" s="14">
         <v>7</v>
       </c>
       <c r="F145">
-        <f>COUNTIFS($D$2:$D$107,$E145,$F$2:$F$107,"TP")</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="G145">
-        <f>COUNTIFS($D$2:$D$107,$E145,$G$2:$G$107,"TP")</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="H145">
-        <f>COUNTIFS($D$2:$D$107,$E145,$H$2:$H$107,"TP")</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="12.75">
+    <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
     </row>
-    <row r="147" spans="1:18" ht="12.75">
+    <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
     </row>
-    <row r="148" spans="1:18" ht="12.75">
+    <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
     </row>
-    <row r="149" spans="1:18" ht="12.75">
+    <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="E149" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F149" s="20" t="s">
+      <c r="F149" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-    </row>
-    <row r="150" spans="1:18" ht="12.75">
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+    </row>
+    <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="E150" s="14">
@@ -3873,353 +3891,507 @@
         <v>42.86</v>
       </c>
       <c r="G150">
-        <f t="shared" ref="G150:H150" si="5">ROUND(G139/G128*100,2)</f>
+        <f t="shared" ref="G150:H150" si="9">ROUND(G139/G128*100,2)</f>
         <v>35.71</v>
       </c>
       <c r="H150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>14.29</v>
       </c>
-      <c r="O150" t="s">
-        <v>125</v>
-      </c>
-      <c r="P150">
-        <v>42.86</v>
-      </c>
-      <c r="Q150">
-        <v>35.71</v>
-      </c>
-      <c r="R150">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="12.75">
+    </row>
+    <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="E151" s="14">
         <v>2</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151:H151" si="6">ROUND(F140/F129*100,2)</f>
+        <f t="shared" ref="F151:H151" si="10">ROUND(F140/F129*100,2)</f>
         <v>0</v>
       </c>
       <c r="G151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>14.29</v>
       </c>
       <c r="H151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>42.86</v>
       </c>
-      <c r="O151" t="s">
-        <v>126</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>14.29</v>
-      </c>
-      <c r="R151">
-        <v>42.86</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="12.75">
+    </row>
+    <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="E152" s="14">
         <v>3</v>
       </c>
       <c r="F152">
-        <f t="shared" ref="F152:H152" si="7">ROUND(F141/F130*100,2)</f>
+        <f t="shared" ref="F152:H152" si="11">ROUND(F141/F130*100,2)</f>
         <v>0</v>
       </c>
       <c r="G152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O152" t="s">
-        <v>127</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152">
-        <v>0</v>
-      </c>
-      <c r="R152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" ht="12.75">
+    </row>
+    <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="E153" s="14">
         <v>4</v>
       </c>
       <c r="F153">
-        <f t="shared" ref="F153:H153" si="8">ROUND(F142/F131*100,2)</f>
+        <f t="shared" ref="F153:H153" si="12">ROUND(F142/F131*100,2)</f>
         <v>28.57</v>
       </c>
       <c r="G153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>28.57</v>
       </c>
       <c r="H153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>42.86</v>
       </c>
-      <c r="O153" t="s">
-        <v>128</v>
-      </c>
-      <c r="P153">
-        <v>28.57</v>
-      </c>
-      <c r="Q153">
-        <v>28.57</v>
-      </c>
-      <c r="R153">
-        <v>42.86</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="12.75">
+    </row>
+    <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="E154" s="14">
         <v>5</v>
       </c>
       <c r="F154">
-        <f t="shared" ref="F154:H154" si="9">ROUND(F143/F132*100,2)</f>
+        <f t="shared" ref="F154:H154" si="13">ROUND(F143/F132*100,2)</f>
         <v>0</v>
       </c>
       <c r="G154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O154" t="s">
-        <v>129</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-      <c r="Q154">
-        <v>0</v>
-      </c>
-      <c r="R154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="12.75">
+    </row>
+    <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="E155" s="14">
         <v>6</v>
       </c>
       <c r="F155">
-        <f t="shared" ref="F155:H155" si="10">ROUND(F144/F133*100,2)</f>
+        <f t="shared" ref="F155:H155" si="14">ROUND(F144/F133*100,2)</f>
         <v>0</v>
       </c>
       <c r="G155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="O155" t="s">
-        <v>130</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>0</v>
-      </c>
-      <c r="R155">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="12.75">
+    </row>
+    <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="E156" s="14">
         <v>7</v>
       </c>
       <c r="F156">
-        <f t="shared" ref="F156:H156" si="11">ROUND(F145/F134*100,2)</f>
+        <f t="shared" ref="F156:H156" si="15">ROUND(F145/F134*100,2)</f>
         <v>100</v>
       </c>
       <c r="G156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="H156">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O156" t="s">
-        <v>131</v>
-      </c>
-      <c r="P156">
-        <v>100</v>
-      </c>
-      <c r="Q156">
-        <v>100</v>
-      </c>
-      <c r="R156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="12.75">
+    </row>
+    <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
     </row>
-    <row r="158" spans="1:18" ht="12.75">
+    <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
     </row>
-    <row r="159" spans="1:18" ht="12.75">
+    <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
     </row>
-    <row r="160" spans="1:18" ht="12.75">
+    <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
-    </row>
-    <row r="161" spans="1:2" ht="12.75">
+      <c r="F160" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+    </row>
+    <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
-    </row>
-    <row r="162" spans="1:2" ht="12.75">
+      <c r="E161" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F161" s="17">
+        <f ca="1">SUM(F162:F168)</f>
+        <v>7</v>
+      </c>
+      <c r="G161" s="17">
+        <f t="shared" ref="G161:H161" ca="1" si="16">SUM(G162:G168)</f>
+        <v>4</v>
+      </c>
+      <c r="H161" s="17">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="14"/>
       <c r="B162" s="14"/>
-    </row>
-    <row r="163" spans="1:2" ht="12.75">
+      <c r="E162" s="26">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <f ca="1">COUNTIFS($D$2:$D$107,$G162,$H$2:$H$107,"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f ca="1">COUNTIFS($D$2:$D$107,$G162,$I$2:$I$107,"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <f ca="1">COUNTIFS($D$2:$D$107,$G162,$J$2:$J$107,"FP")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="14"/>
       <c r="B163" s="14"/>
-    </row>
-    <row r="164" spans="1:2" ht="12.75">
+      <c r="E163" s="26">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <f t="shared" ref="F163:F168" ca="1" si="17">COUNTIFS($D$2:$D$107,$G163,$H$2:$H$107,"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" ref="G163:G168" ca="1" si="18">COUNTIFS($D$2:$D$107,$G163,$I$2:$I$107,"FP")</f>
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <f t="shared" ref="H163:H168" ca="1" si="19">COUNTIFS($D$2:$D$107,$G163,$J$2:$J$107,"FP")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="14"/>
       <c r="B164" s="14"/>
-    </row>
-    <row r="165" spans="1:2" ht="12.75">
+      <c r="E164" s="26">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="14"/>
       <c r="B165" s="14"/>
-    </row>
-    <row r="166" spans="1:2" ht="12.75">
+      <c r="E165" s="26">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="14"/>
       <c r="B166" s="14"/>
-    </row>
-    <row r="167" spans="1:2" ht="12.75">
+      <c r="E166" s="26">
+        <v>5</v>
+      </c>
+      <c r="F166">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="14"/>
       <c r="B167" s="14"/>
-    </row>
-    <row r="168" spans="1:2" ht="12.75">
+      <c r="E167" s="26">
+        <v>6</v>
+      </c>
+      <c r="F167">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="14"/>
       <c r="B168" s="14"/>
-    </row>
-    <row r="169" spans="1:2" ht="12.75">
+      <c r="E168" s="26">
+        <v>7</v>
+      </c>
+      <c r="F168">
+        <f t="shared" ca="1" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="G168">
+        <f t="shared" ca="1" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="H168">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="14"/>
       <c r="B169" s="14"/>
     </row>
-    <row r="170" spans="1:2" ht="12.75">
+    <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="14"/>
       <c r="B170" s="14"/>
     </row>
-    <row r="171" spans="1:2" ht="12.75">
+    <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="14"/>
       <c r="B171" s="14"/>
     </row>
-    <row r="172" spans="1:2" ht="12.75">
+    <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="14"/>
       <c r="B172" s="14"/>
-    </row>
-    <row r="173" spans="1:2" ht="12.75">
+      <c r="E172" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F172" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+    </row>
+    <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="14"/>
       <c r="B173" s="14"/>
-    </row>
-    <row r="174" spans="1:2" ht="12.75">
+      <c r="E173" s="26">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <f ca="1">ROUND(F162/F128*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" ref="G173:H173" ca="1" si="20">ROUND(G162/G128*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <f t="shared" ca="1" si="20"/>
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="14"/>
       <c r="B174" s="14"/>
-    </row>
-    <row r="175" spans="1:2" ht="12.75">
+      <c r="E174" s="26">
+        <v>2</v>
+      </c>
+      <c r="F174">
+        <f t="shared" ref="F174:H179" ca="1" si="21">ROUND(F163/F129*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <f t="shared" ca="1" si="21"/>
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="14"/>
       <c r="B175" s="14"/>
-    </row>
-    <row r="176" spans="1:2" ht="12.75">
+      <c r="E175" s="26">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="14"/>
       <c r="B176" s="14"/>
-    </row>
-    <row r="177" spans="1:2" ht="12.75">
+      <c r="E176" s="26">
+        <v>4</v>
+      </c>
+      <c r="F176">
+        <f t="shared" ca="1" si="21"/>
+        <v>14.29</v>
+      </c>
+      <c r="G176">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <f t="shared" ca="1" si="21"/>
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="14"/>
       <c r="B177" s="14"/>
-    </row>
-    <row r="178" spans="1:2" ht="12.75">
+      <c r="E177" s="26">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="14"/>
       <c r="B178" s="14"/>
-    </row>
-    <row r="179" spans="1:2" ht="12.75">
+      <c r="E178" s="26">
+        <v>6</v>
+      </c>
+      <c r="F178">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="14"/>
       <c r="B179" s="14"/>
-    </row>
-    <row r="180" spans="1:2" ht="12.75">
+      <c r="E179" s="26">
+        <v>7</v>
+      </c>
+      <c r="F179">
+        <f t="shared" ca="1" si="21"/>
+        <v>54.55</v>
+      </c>
+      <c r="G179">
+        <f t="shared" ca="1" si="21"/>
+        <v>36.36</v>
+      </c>
+      <c r="H179">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="14"/>
       <c r="B180" s="14"/>
     </row>
-    <row r="181" spans="1:2" ht="12.75">
+    <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="14"/>
       <c r="B181" s="14"/>
     </row>
-    <row r="182" spans="1:2" ht="12.75">
+    <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="14"/>
       <c r="B182" s="14"/>
     </row>
-    <row r="183" spans="1:2" ht="12.75">
+    <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="14"/>
       <c r="B183" s="14"/>
     </row>
-    <row r="184" spans="1:2" ht="12.75">
+    <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="14"/>
       <c r="B184" s="14"/>
     </row>
-    <row r="185" spans="1:2" ht="12.75">
+    <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="14"/>
       <c r="B185" s="14"/>
     </row>
-    <row r="186" spans="1:2" ht="12.75">
+    <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="14"/>
       <c r="B186" s="14"/>
     </row>
-    <row r="187" spans="1:2" ht="12.75">
+    <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="14"/>
       <c r="B187" s="14"/>
     </row>
-    <row r="188" spans="1:2" ht="12.75">
+    <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="14"/>
       <c r="B188" s="14"/>
     </row>
-    <row r="189" spans="1:2" ht="12.75">
+    <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="14"/>
       <c r="B189" s="14"/>
     </row>
-    <row r="190" spans="1:2" ht="12.75">
+    <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="14"/>
       <c r="B190" s="14"/>
     </row>
-    <row r="191" spans="1:2" ht="12.75">
+    <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="14"/>
       <c r="B191" s="14"/>
     </row>
-    <row r="192" spans="1:2" ht="12.75">
+    <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="14"/>
       <c r="B192" s="14"/>
     </row>
@@ -7399,10 +7571,12 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:H107">
     <sortCondition ref="D2:D107"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="F126:H126"/>
     <mergeCell ref="F137:H137"/>
     <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="F172:H172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
